--- a/Binance_margin.xlsx
+++ b/Binance_margin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA9CDF3-E831-48A0-B74E-BDB856EB12D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3466069F-8F0F-4D28-8259-5C190C0159CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3AB6C973-CC78-4A19-BB79-AFE09C41307B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3AB6C973-CC78-4A19-BB79-AFE09C41307B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>USDC</t>
   </si>
@@ -147,15 +147,34 @@
   </si>
   <si>
     <t>SB (02)</t>
+  </si>
+  <si>
+    <t>Long combinator</t>
+  </si>
+  <si>
+    <t>amount [BTC]</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Short combinator</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -195,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,23 +222,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,14 +583,14 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>1</v>
       </c>
@@ -567,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -594,7 +637,7 @@
         <v>143.82201462</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>0</v>
       </c>
@@ -608,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -629,12 +672,12 @@
         <v>19.737960000000001</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>1</v>
       </c>
@@ -648,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>11</v>
       </c>
@@ -668,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>13</v>
       </c>
@@ -685,32 +728,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>0</v>
       </c>
@@ -724,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>12</v>
       </c>
@@ -753,22 +796,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498365A4-396E-4C2C-8BB2-A898AB00B593}">
-  <dimension ref="B3:H20"/>
+  <dimension ref="B3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -776,7 +826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -784,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -792,7 +842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -811,8 +861,11 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>234</v>
       </c>
@@ -833,8 +886,23 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <f>B10</f>
         <v>234</v>
@@ -856,8 +924,47 @@
         <f>E11</f>
         <v>0.42735042735042733</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="11">
+        <v>29009</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="15">
+        <f>N11/M11</f>
+        <v>3.4472060395049811E-2</v>
+      </c>
+      <c r="P11" s="10">
+        <f>N11</f>
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="12">
+        <v>30864</v>
+      </c>
+      <c r="N12" s="14">
+        <f>M12*O12</f>
+        <v>1063.9456720328174</v>
+      </c>
+      <c r="O12" s="15">
+        <f>O11</f>
+        <v>3.4472060395049811E-2</v>
+      </c>
+      <c r="P12" s="14">
+        <f>-N12</f>
+        <v>-1063.9456720328174</v>
+      </c>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f>B10*1.1</f>
         <v>257.40000000000003</v>
@@ -882,8 +989,27 @@
       <c r="H13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="L13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <f>M12</f>
+        <v>30864</v>
+      </c>
+      <c r="N13">
+        <f>N11</f>
+        <v>1000</v>
+      </c>
+      <c r="O13" s="13">
+        <f>N13/M13</f>
+        <v>3.2400207361327114E-2</v>
+      </c>
+      <c r="P13">
+        <f>N13</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f>B13</f>
         <v>257.40000000000003</v>
@@ -905,8 +1031,31 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="K14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="5">
+        <f>M13</f>
+        <v>30864</v>
+      </c>
+      <c r="N14" s="17">
+        <f>M14*O14</f>
+        <v>63.945672032817313</v>
+      </c>
+      <c r="O14" s="18">
+        <f>O12-O13</f>
+        <v>2.0718530337226967E-3</v>
+      </c>
+      <c r="P14" s="17">
+        <f>-N14</f>
+        <v>-63.945672032817313</v>
+      </c>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>B13</f>
         <v>257.40000000000003</v>
@@ -928,13 +1077,40 @@
         <f>E15</f>
         <v>0.38850038850038843</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <f>B10/1.1</f>
         <v>212.72727272727272</v>
@@ -957,8 +1133,25 @@
         <f>-E18</f>
         <v>-0.42735042735042733</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="12">
+        <v>56736.05</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="13">
+        <f>N18/M18</f>
+        <v>1.7625477980930993E-2</v>
+      </c>
+      <c r="P18" s="13">
+        <f>O18</f>
+        <v>1.7625477980930993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f>B18</f>
         <v>212.72727272727272</v>
@@ -966,8 +1159,26 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="12">
+        <v>53546.85</v>
+      </c>
+      <c r="N19" s="14">
+        <f>M19*O19</f>
+        <v>943.78882562321473</v>
+      </c>
+      <c r="O19" s="13">
+        <f>O18</f>
+        <v>1.7625477980930993E-2</v>
+      </c>
+      <c r="P19" s="13">
+        <f>-P18</f>
+        <v>-1.7625477980930993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <f>B18</f>
         <v>212.72727272727272</v>
@@ -989,8 +1200,54 @@
         <f>E20</f>
         <v>0.47008547008547008</v>
       </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <f>M19</f>
+        <v>53546.85</v>
+      </c>
+      <c r="N20">
+        <f>N18</f>
+        <v>1000</v>
+      </c>
+      <c r="O20" s="13">
+        <f>N20/M20</f>
+        <v>1.8675234864422463E-2</v>
+      </c>
+      <c r="P20" s="13">
+        <f>O20</f>
+        <v>1.8675234864422463E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="5">
+        <f>M20</f>
+        <v>53546.85</v>
+      </c>
+      <c r="N21" s="17">
+        <f>M21*O21</f>
+        <v>56.211174376785209</v>
+      </c>
+      <c r="O21" s="18">
+        <f>O20-O19</f>
+        <v>1.0497568834914699E-3</v>
+      </c>
+      <c r="P21" s="18">
+        <f>P18+O21</f>
+        <v>1.8675234864422463E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="O12:P12 N13 P13 O19:P19 N20" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>